--- a/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>PH</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Background tile download (csache support)</t>
+  </si>
+  <si>
+    <t>Not yet allocated (fault fixing)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -240,6 +243,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -589,11 +604,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,14 +648,14 @@
         <v>14</v>
       </c>
       <c r="B3" s="11">
-        <f t="shared" ref="B3:B21" si="0">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A3*7</f>
+        <f t="shared" ref="B3:B41" si="0">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A3*7</f>
         <v>42828</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="19" t="s">
@@ -655,9 +670,9 @@
         <f t="shared" si="0"/>
         <v>42835</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
@@ -670,11 +685,11 @@
         <f t="shared" si="0"/>
         <v>42842</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,9 +700,9 @@
         <f t="shared" si="0"/>
         <v>42849</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
@@ -703,10 +718,10 @@
       <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
@@ -719,13 +734,13 @@
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,9 +751,9 @@
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,10 +764,10 @@
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="7"/>
@@ -766,8 +781,8 @@
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="7"/>
       <c r="F11" s="14"/>
     </row>
@@ -779,8 +794,8 @@
         <f t="shared" si="0"/>
         <v>42891</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
     </row>
@@ -792,14 +807,12 @@
         <f t="shared" si="0"/>
         <v>42898</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>13</v>
+      <c r="C13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="F13" s="14"/>
     </row>
@@ -811,12 +824,8 @@
         <f t="shared" si="0"/>
         <v>42905</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="7"/>
       <c r="F14" s="14"/>
     </row>
@@ -828,8 +837,8 @@
         <f t="shared" si="0"/>
         <v>42912</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="7"/>
       <c r="F15" s="14"/>
     </row>
@@ -845,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="14" t="s">
@@ -860,11 +869,11 @@
         <f t="shared" si="0"/>
         <v>42926</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,11 +884,11 @@
         <f t="shared" si="0"/>
         <v>42933</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="20"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="25"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,9 +899,9 @@
         <f t="shared" si="0"/>
         <v>42940</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,11 +912,9 @@
         <f t="shared" si="0"/>
         <v>42947</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="20"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,43 +925,317 @@
         <f t="shared" si="0"/>
         <v>42954</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="10">
+        <v>33</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" si="0"/>
+        <v>42961</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="10">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11">
+        <f t="shared" si="0"/>
+        <v>42968</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>35</v>
+      </c>
+      <c r="B24" s="11">
+        <f t="shared" si="0"/>
+        <v>42975</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>36</v>
+      </c>
+      <c r="B25" s="11">
+        <f t="shared" si="0"/>
+        <v>42982</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>37</v>
+      </c>
+      <c r="B26" s="11">
+        <f t="shared" si="0"/>
+        <v>42989</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>38</v>
+      </c>
+      <c r="B27" s="11">
+        <f t="shared" si="0"/>
+        <v>42996</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>39</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" si="0"/>
+        <v>43003</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>40</v>
+      </c>
+      <c r="B29" s="11">
+        <f t="shared" si="0"/>
+        <v>43010</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>41</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" si="0"/>
+        <v>43017</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>42</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" si="0"/>
+        <v>43024</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>43</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" si="0"/>
+        <v>43031</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>44</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" si="0"/>
+        <v>43038</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>45</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" si="0"/>
+        <v>43045</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>46</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" si="0"/>
+        <v>43052</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>47</v>
+      </c>
+      <c r="B36" s="11">
+        <f t="shared" si="0"/>
+        <v>43059</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>48</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" si="0"/>
+        <v>43066</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>49</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" si="0"/>
+        <v>43073</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>50</v>
+      </c>
+      <c r="B39" s="11">
+        <f t="shared" si="0"/>
+        <v>43080</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>51</v>
+      </c>
+      <c r="B40" s="11">
+        <f t="shared" si="0"/>
+        <v>43087</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>52</v>
+      </c>
+      <c r="B41" s="11">
+        <f t="shared" si="0"/>
+        <v>43094</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F46" s="19" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:E21"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>

--- a/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
@@ -79,12 +79,6 @@
     <t>CDC sandbox ready</t>
   </si>
   <si>
-    <t>Risk analysis sstaitical requirements</t>
-  </si>
-  <si>
-    <t>Risk aanlysis R scripts</t>
-  </si>
-  <si>
     <t>Risk analysis integration</t>
   </si>
   <si>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>Not yet allocated (fault fixing)</t>
+  </si>
+  <si>
+    <t>Risk analysis R scripts</t>
+  </si>
+  <si>
+    <t>Risk analysis statistical requirements</t>
   </si>
 </sst>
 </file>
@@ -244,23 +244,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,8 +607,8 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,11 +651,11 @@
         <f t="shared" ref="B3:B41" si="0">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A3*7</f>
         <v>42828</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="19" t="s">
@@ -670,9 +670,9 @@
         <f t="shared" si="0"/>
         <v>42835</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
@@ -685,11 +685,11 @@
         <f t="shared" si="0"/>
         <v>42842</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -700,9 +700,9 @@
         <f t="shared" si="0"/>
         <v>42849</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
@@ -718,10 +718,10 @@
       <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
@@ -734,13 +734,13 @@
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="28"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,9 +751,9 @@
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,11 +764,11 @@
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>24</v>
+      <c r="D10" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="14"/>
@@ -781,8 +781,8 @@
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7"/>
       <c r="F11" s="14"/>
     </row>
@@ -794,8 +794,8 @@
         <f t="shared" si="0"/>
         <v>42891</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
     </row>
@@ -807,12 +807,12 @@
         <f t="shared" si="0"/>
         <v>42898</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="24"/>
+      <c r="C13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="25"/>
       <c r="E13" s="22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F13" s="14"/>
     </row>
@@ -824,8 +824,8 @@
         <f t="shared" si="0"/>
         <v>42905</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="7"/>
       <c r="F14" s="14"/>
     </row>
@@ -837,8 +837,8 @@
         <f t="shared" si="0"/>
         <v>42912</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="7"/>
       <c r="F15" s="14"/>
     </row>
@@ -854,11 +854,8 @@
         <v>7</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="28" t="s">
         <v>16</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,11 +866,11 @@
         <f t="shared" si="0"/>
         <v>42926</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -884,11 +881,11 @@
         <f t="shared" si="0"/>
         <v>42933</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="28"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,9 +896,9 @@
         <f t="shared" si="0"/>
         <v>42940</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,9 +909,9 @@
         <f t="shared" si="0"/>
         <v>42947</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,11 +922,11 @@
         <f t="shared" si="0"/>
         <v>42954</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,10 +956,10 @@
         <f t="shared" si="0"/>
         <v>42968</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="14"/>
@@ -975,8 +972,8 @@
         <f t="shared" si="0"/>
         <v>42975</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,7 +987,9 @@
       <c r="C25" s="23"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -1216,17 +1215,11 @@
         <v>8</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:E21"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D8:E9"/>
@@ -1236,6 +1229,12 @@
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:E21"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>

--- a/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6645"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="6650"/>
   </bookViews>
   <sheets>
     <sheet name="People View" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>PH</t>
   </si>
@@ -88,16 +88,49 @@
     <t>Public network demonstrator system</t>
   </si>
   <si>
-    <t>Background tile download (csache support)</t>
-  </si>
-  <si>
-    <t>Not yet allocated (fault fixing)</t>
-  </si>
-  <si>
     <t>Risk analysis R scripts</t>
   </si>
   <si>
     <t>Risk analysis statistical requirements</t>
+  </si>
+  <si>
+    <t>GIS Course</t>
+  </si>
+  <si>
+    <t>JRI</t>
+  </si>
+  <si>
+    <t>Risk analysis middleware</t>
+  </si>
+  <si>
+    <t>JRI Integration</t>
+  </si>
+  <si>
+    <t>More holiday</t>
+  </si>
+  <si>
+    <t>Penetration testing</t>
+  </si>
+  <si>
+    <t>SAHSU 30th</t>
+  </si>
+  <si>
+    <t>Big Data, Small Area</t>
+  </si>
+  <si>
+    <t>SQL Server Data Loader</t>
+  </si>
+  <si>
+    <t>Background tile download (cache support)</t>
+  </si>
+  <si>
+    <t>PHR Demo 3rd July</t>
+  </si>
+  <si>
+    <t>Cloud service</t>
+  </si>
+  <si>
+    <t>SEER, Halland Test Data</t>
   </si>
 </sst>
 </file>
@@ -107,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +174,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +203,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,34 +281,47 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -269,6 +330,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -606,21 +672,21 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="18.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="39.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="10"/>
+    <col min="2" max="2" width="18.81640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="39.81640625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="39.81640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="54.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -643,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>14</v>
       </c>
@@ -651,18 +717,18 @@
         <f t="shared" ref="B3:B41" si="0">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A3*7</f>
         <v>42828</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>15</v>
       </c>
@@ -670,14 +736,14 @@
         <f t="shared" si="0"/>
         <v>42835</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>16</v>
       </c>
@@ -685,14 +751,14 @@
         <f t="shared" si="0"/>
         <v>42842</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>17</v>
       </c>
@@ -700,14 +766,14 @@
         <f t="shared" si="0"/>
         <v>42849</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>18</v>
       </c>
@@ -718,15 +784,15 @@
       <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>19</v>
       </c>
@@ -734,16 +800,16 @@
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="28"/>
+      <c r="C8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="25"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>20</v>
       </c>
@@ -751,12 +817,12 @@
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>21</v>
       </c>
@@ -764,16 +830,16 @@
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>22</v>
       </c>
@@ -781,12 +847,12 @@
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>23</v>
       </c>
@@ -794,12 +860,16 @@
         <f t="shared" si="0"/>
         <v>42891</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>24</v>
       </c>
@@ -807,16 +877,16 @@
         <f t="shared" si="0"/>
         <v>42898</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>25</v>
+      <c r="C13" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="22" t="s">
-        <v>26</v>
+      <c r="E13" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>25</v>
       </c>
@@ -824,12 +894,16 @@
         <f t="shared" si="0"/>
         <v>42905</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>26</v>
       </c>
@@ -837,12 +911,16 @@
         <f t="shared" si="0"/>
         <v>42912</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="25"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>27</v>
       </c>
@@ -853,12 +931,15 @@
       <c r="C16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>28</v>
       </c>
@@ -866,14 +947,16 @@
         <f t="shared" si="0"/>
         <v>42926</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>29</v>
       </c>
@@ -881,14 +964,16 @@
         <f t="shared" si="0"/>
         <v>42933</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="28"/>
+      <c r="C18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="26"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>30</v>
       </c>
@@ -896,12 +981,12 @@
         <f t="shared" si="0"/>
         <v>42940</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>31</v>
       </c>
@@ -909,12 +994,12 @@
         <f t="shared" si="0"/>
         <v>42947</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>32</v>
       </c>
@@ -922,14 +1007,8 @@
         <f t="shared" si="0"/>
         <v>42954</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>33</v>
       </c>
@@ -937,18 +1016,9 @@
         <f t="shared" si="0"/>
         <v>42961</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>34</v>
       </c>
@@ -956,15 +1026,12 @@
         <f t="shared" si="0"/>
         <v>42968</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>14</v>
+      <c r="C23" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>35</v>
       </c>
@@ -973,10 +1040,9 @@
         <v>42975</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="E24" s="27"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>36</v>
       </c>
@@ -984,14 +1050,13 @@
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>37</v>
       </c>
@@ -999,12 +1064,14 @@
         <f t="shared" si="0"/>
         <v>42989</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>38</v>
       </c>
@@ -1012,12 +1079,11 @@
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>39</v>
       </c>
@@ -1025,12 +1091,9 @@
         <f t="shared" si="0"/>
         <v>43003</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>40</v>
       </c>
@@ -1038,12 +1101,9 @@
         <f t="shared" si="0"/>
         <v>43010</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>41</v>
       </c>
@@ -1051,12 +1111,18 @@
         <f t="shared" si="0"/>
         <v>43017</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="C30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>42</v>
       </c>
@@ -1064,12 +1130,15 @@
         <f t="shared" si="0"/>
         <v>43024</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="C31" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>43</v>
       </c>
@@ -1077,12 +1146,13 @@
         <f t="shared" si="0"/>
         <v>43031</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>44</v>
       </c>
@@ -1091,10 +1161,10 @@
         <v>43038</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>45</v>
       </c>
@@ -1102,11 +1172,8 @@
         <f t="shared" si="0"/>
         <v>43045</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>46</v>
       </c>
@@ -1114,11 +1181,16 @@
         <f t="shared" si="0"/>
         <v>43052</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>47</v>
       </c>
@@ -1126,11 +1198,8 @@
         <f t="shared" si="0"/>
         <v>43059</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>48</v>
       </c>
@@ -1138,11 +1207,11 @@
         <f t="shared" si="0"/>
         <v>43066</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>49</v>
       </c>
@@ -1150,11 +1219,11 @@
         <f t="shared" si="0"/>
         <v>43073</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>50</v>
       </c>
@@ -1162,11 +1231,11 @@
         <f t="shared" si="0"/>
         <v>43080</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>51</v>
       </c>
@@ -1174,11 +1243,11 @@
         <f t="shared" si="0"/>
         <v>43087</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>52</v>
       </c>
@@ -1186,31 +1255,31 @@
         <f t="shared" si="0"/>
         <v>43094</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C46" s="4" t="s">
         <v>8</v>
       </c>
@@ -1219,22 +1288,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C23:C24"/>
+  <mergeCells count="20">
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D10:D12"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:E21"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>

--- a/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>PH</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>SEER, Halland Test Data</t>
+  </si>
+  <si>
+    <t>Data loader testing</t>
+  </si>
+  <si>
+    <t>CDC penetration test passed</t>
   </si>
 </sst>
 </file>
@@ -223,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -298,10 +304,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -309,19 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -673,8 +682,8 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,11 +726,13 @@
         <f t="shared" ref="B3:B41" si="0">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A3*7</f>
         <v>42828</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="32" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="19" t="s">
@@ -737,8 +748,8 @@
         <v>42835</v>
       </c>
       <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
@@ -751,11 +762,11 @@
         <f t="shared" si="0"/>
         <v>42842</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -766,9 +777,9 @@
         <f t="shared" si="0"/>
         <v>42849</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
@@ -784,10 +795,10 @@
       <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
@@ -800,13 +811,13 @@
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -817,9 +828,9 @@
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -830,8 +841,8 @@
         <f t="shared" si="0"/>
         <v>42877</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="24" t="s">
@@ -847,9 +858,11 @@
         <f t="shared" si="0"/>
         <v>42884</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -860,8 +873,8 @@
         <f t="shared" si="0"/>
         <v>42891</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -880,7 +893,7 @@
       <c r="C13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="24" t="s">
         <v>24</v>
       </c>
@@ -894,11 +907,11 @@
         <f t="shared" si="0"/>
         <v>42905</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="32" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="14"/>
@@ -914,11 +927,13 @@
       <c r="C15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
@@ -931,8 +946,8 @@
       <c r="C16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
@@ -950,10 +965,10 @@
       <c r="C17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -964,13 +979,13 @@
         <f t="shared" si="0"/>
         <v>42933</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -981,9 +996,9 @@
         <f t="shared" si="0"/>
         <v>42940</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -997,6 +1012,10 @@
       <c r="C20" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="D20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="29"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1007,6 +1026,9 @@
         <f t="shared" si="0"/>
         <v>42954</v>
       </c>
+      <c r="E21" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
@@ -1026,7 +1048,7 @@
         <f t="shared" si="0"/>
         <v>42968</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="14"/>
@@ -1039,7 +1061,7 @@
         <f t="shared" si="0"/>
         <v>42975</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1050,11 +1072,11 @@
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
@@ -1064,9 +1086,9 @@
         <f t="shared" si="0"/>
         <v>42989</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="14" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1101,7 @@
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1091,7 +1113,7 @@
         <f t="shared" si="0"/>
         <v>43003</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
@@ -1101,7 +1123,7 @@
         <f t="shared" si="0"/>
         <v>43010</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
@@ -1130,10 +1152,10 @@
         <f t="shared" si="0"/>
         <v>43024</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="14"/>
@@ -1146,8 +1168,8 @@
         <f t="shared" si="0"/>
         <v>43031</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="C32" s="29"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="14" t="s">
         <v>15</v>
       </c>
@@ -1181,12 +1203,12 @@
         <f t="shared" si="0"/>
         <v>43052</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="32" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1289,10 +1311,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E16:E20"/>
     <mergeCell ref="C25:E26"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E19"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D15:D16"/>
@@ -1302,12 +1330,6 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D8:E9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="C27:C29"/>
   </mergeCells>
   <hyperlinks>

--- a/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - April 2017 to December 2017.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="6650"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="6650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People View" sheetId="2" r:id="rId1"/>
+    <sheet name="2018 Tasks" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2018 Tasks'!$A$1:$H$27</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>PH</t>
   </si>
@@ -85,9 +89,6 @@
     <t>Risk analysis</t>
   </si>
   <si>
-    <t>Public network demonstrator system</t>
-  </si>
-  <si>
     <t>Risk analysis R scripts</t>
   </si>
   <si>
@@ -127,16 +128,169 @@
     <t>PHR Demo 3rd July</t>
   </si>
   <si>
-    <t>Cloud service</t>
-  </si>
-  <si>
-    <t>SEER, Halland Test Data</t>
-  </si>
-  <si>
     <t>Data loader testing</t>
   </si>
   <si>
     <t>CDC penetration test passed</t>
+  </si>
+  <si>
+    <t>Data Loader testing and manual</t>
+  </si>
+  <si>
+    <t>Non RIF project work</t>
+  </si>
+  <si>
+    <t>RIF middieware logging</t>
+  </si>
+  <si>
+    <t>IRF middleware code tidy</t>
+  </si>
+  <si>
+    <t>Cloud service, SEER data</t>
+  </si>
+  <si>
+    <t>SAHSU RIF initial data load</t>
+  </si>
+  <si>
+    <t>Add support for missing features:</t>
+  </si>
+  <si>
+    <t>Multiple investigations</t>
+  </si>
+  <si>
+    <t>Issses:</t>
+  </si>
+  <si>
+    <t>No SAHSU RIF operational for 30th. It can be made operational if we shift focus from the data loader</t>
+  </si>
+  <si>
+    <t>No Statistical testing has been programmed in</t>
+  </si>
+  <si>
+    <t>No public network demonstrator system</t>
+  </si>
+  <si>
+    <t>WILL SLIP</t>
+  </si>
+  <si>
+    <t>SEER, Halland Test Data load</t>
+  </si>
+  <si>
+    <t>No allowance for CDC install support</t>
+  </si>
+  <si>
+    <t>Use on real study</t>
+  </si>
+  <si>
+    <t>Papers!!!!</t>
+  </si>
+  <si>
+    <t>DM/PH</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Becky 2.0</t>
+  </si>
+  <si>
+    <t>Kev 2.0</t>
+  </si>
+  <si>
+    <t>ICD 9, ICD oncology, HES OPCS and A+E codes</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Estimate (weeks)</t>
+  </si>
+  <si>
+    <t>Kev 2.0 time</t>
+  </si>
+  <si>
+    <t>Kev 2.0 total time</t>
+  </si>
+  <si>
+    <t>Risk analysis related functionality (e.g. Mantel–Haenszel test)</t>
+  </si>
+  <si>
+    <t>Multiple covariates per investigation</t>
+  </si>
+  <si>
+    <t>BayeSTDetect</t>
+  </si>
+  <si>
+    <t>DM with PH for DB</t>
+  </si>
+  <si>
+    <t>DM and BP</t>
+  </si>
+  <si>
+    <t>DM total time</t>
+  </si>
+  <si>
+    <t>PH total time</t>
+  </si>
+  <si>
+    <t>BP total time</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Likely to be lost if no Kev 2.0</t>
+  </si>
+  <si>
+    <t>YES, possibly ICD 9 only</t>
+  </si>
+  <si>
+    <t>YES. Will have current limited functionality</t>
+  </si>
+  <si>
+    <t>Will be under pressure compensating for lack of Kev 2.0</t>
+  </si>
+  <si>
+    <t>SATSCAN integration</t>
+  </si>
+  <si>
+    <t>Support only (i.e. run externally) also possible</t>
+  </si>
+  <si>
+    <t>Use of pre-defined code lists</t>
+  </si>
+  <si>
+    <t>Low birth weight analysis support</t>
+  </si>
+  <si>
+    <t>[Note that 28 weeks at 14 days/month = 40 weeks]</t>
+  </si>
+  <si>
+    <t>Non RIF project work, assist PH with Data loader</t>
+  </si>
+  <si>
+    <t>IG Tool (includes documentation)</t>
+  </si>
+  <si>
+    <t>Web based/more functional data loader (includes documentation)</t>
+  </si>
+  <si>
+    <t>Complete tilemaker (includes documentation)</t>
+  </si>
+  <si>
+    <t>RIF batch (includes documentation)</t>
+  </si>
+  <si>
+    <t>Comprehensive statistical test suite (includes documentation)</t>
+  </si>
+  <si>
+    <t>SAHSU data load and setup (includes documentation)</t>
+  </si>
+  <si>
+    <t>RIF user manual</t>
+  </si>
+  <si>
+    <t>YES. Will be done using SQL; time needed to document</t>
   </si>
 </sst>
 </file>
@@ -146,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +339,34 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,12 +448,6 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -301,18 +477,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -320,18 +505,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -681,9 +869,9 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,16 +914,16 @@
         <f t="shared" ref="B3:B41" si="0">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A3*7</f>
         <v>42828</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -747,7 +935,7 @@
         <f t="shared" si="0"/>
         <v>42835</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="2" t="s">
@@ -762,7 +950,7 @@
         <f t="shared" si="0"/>
         <v>42842</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="29"/>
@@ -777,10 +965,10 @@
         <f t="shared" si="0"/>
         <v>42849</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -792,14 +980,14 @@
         <f t="shared" si="0"/>
         <v>42856</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -811,14 +999,14 @@
         <f t="shared" si="0"/>
         <v>42863</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
@@ -828,10 +1016,10 @@
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
@@ -842,13 +1030,13 @@
         <v>42877</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="14"/>
+      <c r="E10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
@@ -859,11 +1047,11 @@
         <v>42884</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
@@ -874,13 +1062,13 @@
         <v>42891</v>
       </c>
       <c r="C12" s="34"/>
-      <c r="D12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="14"/>
+      <c r="D12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
@@ -890,14 +1078,12 @@
         <f t="shared" si="0"/>
         <v>42898</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="14"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
@@ -907,14 +1093,14 @@
         <f t="shared" si="0"/>
         <v>42905</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="14"/>
+      <c r="C14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
@@ -924,15 +1110,18 @@
         <f t="shared" si="0"/>
         <v>42912</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="14" t="s">
-        <v>40</v>
+      <c r="G15" s="37" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -943,15 +1132,15 @@
         <f t="shared" si="0"/>
         <v>42919</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -962,14 +1151,14 @@
         <f t="shared" si="0"/>
         <v>42926</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
@@ -980,13 +1169,15 @@
         <v>42933</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
@@ -999,7 +1190,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="7"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
@@ -1009,14 +1200,14 @@
         <f t="shared" si="0"/>
         <v>42947</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>28</v>
+      <c r="C20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="E20" s="29"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
@@ -1026,7 +1217,11 @@
         <f t="shared" si="0"/>
         <v>42954</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="C21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1038,7 +1233,12 @@
         <f t="shared" si="0"/>
         <v>42961</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
@@ -1048,10 +1248,10 @@
         <f t="shared" si="0"/>
         <v>42968</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="14"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
@@ -1061,8 +1261,12 @@
         <f t="shared" si="0"/>
         <v>42975</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="F24" s="14"/>
+      <c r="C24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
@@ -1072,7 +1276,7 @@
         <f t="shared" si="0"/>
         <v>42982</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="29"/>
@@ -1089,7 +1293,7 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1101,8 +1305,14 @@
         <f t="shared" si="0"/>
         <v>42996</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>12</v>
+      <c r="C27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1113,7 +1323,9 @@
         <f t="shared" si="0"/>
         <v>43003</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
@@ -1123,7 +1335,11 @@
         <f t="shared" si="0"/>
         <v>43010</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
@@ -1133,16 +1349,12 @@
         <f t="shared" si="0"/>
         <v>43017</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="14"/>
+      <c r="C30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
@@ -1152,13 +1364,10 @@
         <f t="shared" si="0"/>
         <v>43024</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="14"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
@@ -1168,11 +1377,10 @@
         <f t="shared" si="0"/>
         <v>43031</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="E32" s="29"/>
-      <c r="F32" s="14" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
@@ -1182,9 +1390,9 @@
         <f t="shared" si="0"/>
         <v>43038</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
@@ -1194,6 +1402,8 @@
         <f t="shared" si="0"/>
         <v>43045</v>
       </c>
+      <c r="C34" s="34"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
@@ -1203,13 +1413,13 @@
         <f t="shared" si="0"/>
         <v>43052</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="27" t="s">
+      <c r="C35" s="31" t="s">
         <v>32</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1220,6 +1430,15 @@
         <f t="shared" si="0"/>
         <v>43059</v>
       </c>
+      <c r="C36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
@@ -1229,9 +1448,13 @@
         <f t="shared" si="0"/>
         <v>43066</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="C37" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
@@ -1241,9 +1464,12 @@
         <f t="shared" si="0"/>
         <v>43073</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
@@ -1253,9 +1479,9 @@
         <f t="shared" si="0"/>
         <v>43080</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
@@ -1265,9 +1491,9 @@
         <f t="shared" si="0"/>
         <v>43087</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
@@ -1277,47 +1503,49 @@
         <f t="shared" si="0"/>
         <v>43094</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="19"/>
+      <c r="E43" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="35" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>23</v>
+      <c r="F46" s="37" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E16:E20"/>
+  <mergeCells count="27">
     <mergeCell ref="C25:E26"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="E14:E15"/>
@@ -1326,16 +1554,433 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="55.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="4" max="6" width="3.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="46.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C4:F4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C5:F5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>SUM(C6:F6)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f>SUM(C7:F7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f>SUM(C8:F8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>SUM(C9:F9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <f>SUM(C10:F10)</f>
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f>SUM(C11:F11)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>SUM(C12:F12)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <f>SUM(C13:F13)</f>
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <f>SUM(C14:F14)</f>
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <f>SUM(C15:F15)</f>
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f>SUM(C16:F16)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f>SUM(C17:F17)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f>SUM(C18:F18)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>SUM(C19:F19)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G4:G21)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C6:C20)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D4:D24)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E4:E25)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F4:F26)</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>